--- a/Documentos/v9.mapMexico/Mapeador/Matriz de traza.xlsx
+++ b/Documentos/v9.mapMexico/Mapeador/Matriz de traza.xlsx
@@ -1608,9 +1608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:A52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1639,9 +1637,6 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6</v>
-      </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
@@ -1663,7 +1658,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -1683,7 +1678,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -1703,7 +1698,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -1723,7 +1718,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
@@ -1743,7 +1738,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5">
         <v>6</v>
@@ -1763,7 +1758,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
@@ -1783,7 +1778,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
@@ -1803,7 +1798,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
@@ -1843,7 +1838,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
@@ -1963,7 +1958,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5">
         <v>16</v>
@@ -1983,7 +1978,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5">
         <v>17</v>
@@ -2003,7 +1998,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="5">
         <v>18</v>
@@ -2023,7 +2018,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5">
         <v>19</v>
@@ -2043,7 +2038,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5">
         <v>20</v>
@@ -2063,7 +2058,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="5">
         <v>21</v>
@@ -2083,7 +2078,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5">
         <v>22</v>
@@ -2103,7 +2098,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="5">
         <v>23</v>
@@ -2263,7 +2258,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="5">
         <v>31</v>
@@ -2283,7 +2278,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="5">
         <v>32</v>
@@ -2303,7 +2298,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="5">
         <v>33</v>
@@ -2323,7 +2318,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="5">
         <v>34</v>
@@ -2343,7 +2338,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="5">
         <v>35</v>
@@ -2363,7 +2358,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="5">
         <v>36</v>
@@ -2463,7 +2458,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="5">
         <v>41</v>
@@ -2483,7 +2478,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="5">
         <v>42</v>
@@ -2503,7 +2498,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" s="5">
         <v>43</v>

--- a/Documentos/v9.mapMexico/Mapeador/Matriz de traza.xlsx
+++ b/Documentos/v9.mapMexico/Mapeador/Matriz de traza.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15600" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="2" r:id="rId1"/>
@@ -12,10 +12,10 @@
     <sheet name="Features" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Uso'!$B$1:$F$52</definedName>
-    <definedName name="casosUso">'Casos de Uso'!$B$1:$F$52</definedName>
-    <definedName name="OLE_LINK1" localSheetId="1">'Casos de Uso'!$D$27</definedName>
-    <definedName name="OLE_LINK3" localSheetId="1">'Casos de Uso'!$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Uso'!$C$1:$G$52</definedName>
+    <definedName name="casosUso">'Casos de Uso'!$C$1:$G$52</definedName>
+    <definedName name="OLE_LINK1" localSheetId="1">'Casos de Uso'!$E$27</definedName>
+    <definedName name="OLE_LINK3" localSheetId="1">'Casos de Uso'!$E$49</definedName>
     <definedName name="Requerimientos">Requerimientos!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="212">
   <si>
     <t>Gestión de Mapas</t>
   </si>
@@ -661,6 +661,21 @@
   </si>
   <si>
     <t>Orden</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Emmanuelle</t>
+  </si>
+  <si>
+    <t>Jose Luis</t>
+  </si>
+  <si>
+    <t>Miguel Angel</t>
   </si>
 </sst>
 </file>
@@ -705,12 +720,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -725,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -740,6 +761,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1606,1062 +1629,1101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>18</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>19</v>
       </c>
-      <c r="B7" s="5">
+      <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>21</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>22</v>
       </c>
-      <c r="B10" s="5">
+      <c r="C10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="B11" s="5">
+      <c r="C11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>23</v>
       </c>
-      <c r="B12" s="5">
+      <c r="C12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="B13" s="5">
+      <c r="C13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="7">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <v>19</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>24</v>
       </c>
-      <c r="B18" s="5">
+      <c r="C18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>25</v>
       </c>
-      <c r="B19" s="5">
+      <c r="C19" s="5">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>26</v>
       </c>
-      <c r="B20" s="5">
+      <c r="C20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>27</v>
       </c>
-      <c r="B21" s="5">
+      <c r="C21" s="5">
         <v>19</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>28</v>
       </c>
-      <c r="B22" s="5">
+      <c r="C22" s="5">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>29</v>
       </c>
-      <c r="B23" s="5">
+      <c r="C23" s="5">
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>30</v>
       </c>
-      <c r="B24" s="5">
+      <c r="C24" s="5">
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>31</v>
       </c>
-      <c r="B25" s="5">
+      <c r="C25" s="5">
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="B26" s="5">
+      <c r="C26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27">
         <v>2</v>
       </c>
-      <c r="B27" s="5">
+      <c r="C27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28">
         <v>3</v>
       </c>
-      <c r="B28" s="5">
+      <c r="C28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="7">
         <v>27</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="7">
         <v>20</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="7">
         <v>28</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="7">
+      <c r="G30" s="7">
         <v>20</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="7">
         <v>29</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G31" s="7">
         <v>20</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="7">
         <v>30</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="7">
+      <c r="G32" s="7">
         <v>20</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>12</v>
       </c>
-      <c r="B33" s="5">
+      <c r="C33" s="5">
         <v>31</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>13</v>
       </c>
-      <c r="B34" s="5">
+      <c r="C34" s="5">
         <v>32</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>14</v>
       </c>
-      <c r="B35" s="5">
+      <c r="C35" s="5">
         <v>33</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36">
         <v>9</v>
       </c>
-      <c r="B36" s="5">
+      <c r="C36" s="5">
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37">
         <v>10</v>
       </c>
-      <c r="B37" s="5">
+      <c r="C37" s="5">
         <v>35</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38">
         <v>11</v>
       </c>
-      <c r="B38" s="5">
+      <c r="C38" s="5">
         <v>36</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="7">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="7">
         <v>37</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
         <v>16</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="7">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="7">
         <v>38</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <v>16</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="7">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="7">
         <v>39</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G41" s="7">
         <v>16</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="7">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="7">
         <v>40</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>16</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>15</v>
       </c>
-      <c r="B43" s="5">
+      <c r="C43" s="5">
         <v>41</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="5">
+      <c r="G43" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>16</v>
       </c>
-      <c r="B44" s="5">
+      <c r="C44" s="5">
         <v>42</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>17</v>
       </c>
-      <c r="B45" s="5">
+      <c r="C45" s="5">
         <v>43</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="7">
         <v>44</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="7">
         <v>21</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="7">
         <v>45</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="7">
+      <c r="G47" s="7">
         <v>21</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="7">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="7">
         <v>46</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="7">
+      <c r="G48" s="7">
         <v>21</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="5">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="9"/>
+      <c r="C49" s="5">
         <v>47</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="5">
+      <c r="G49" s="5">
         <v>22</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="5">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="5">
         <v>48</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G50" s="5">
         <v>22</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="5">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="5">
         <v>49</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>22</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="5">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="5">
         <v>50</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>22</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F52"/>
+  <autoFilter ref="C1:G52"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentos/v9.mapMexico/Mapeador/Matriz de traza.xlsx
+++ b/Documentos/v9.mapMexico/Mapeador/Matriz de traza.xlsx
@@ -4,26 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="15600" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1185" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="2" r:id="rId1"/>
     <sheet name="Casos de Uso" sheetId="3" r:id="rId2"/>
     <sheet name="Features" sheetId="5" r:id="rId3"/>
+    <sheet name="Menu" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Uso'!$C$1:$G$52</definedName>
-    <definedName name="casosUso">'Casos de Uso'!$C$1:$G$52</definedName>
-    <definedName name="OLE_LINK1" localSheetId="1">'Casos de Uso'!$E$27</definedName>
-    <definedName name="OLE_LINK3" localSheetId="1">'Casos de Uso'!$E$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Uso'!$A$1:$H$52</definedName>
+    <definedName name="casosUso">'Casos de Uso'!$D$1:$H$52</definedName>
+    <definedName name="OLE_LINK1" localSheetId="1">'Casos de Uso'!$F$27</definedName>
+    <definedName name="OLE_LINK3" localSheetId="1">'Casos de Uso'!$F$49</definedName>
     <definedName name="Requerimientos">Requerimientos!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="296">
   <si>
     <t>Gestión de Mapas</t>
   </si>
@@ -669,20 +672,272 @@
     <t>Julio</t>
   </si>
   <si>
-    <t>Emmanuelle</t>
-  </si>
-  <si>
     <t>Jose Luis</t>
   </si>
   <si>
     <t>Miguel Angel</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>SEGURIDAD</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>PERFIL</t>
+  </si>
+  <si>
+    <t>BITACORA</t>
+  </si>
+  <si>
+    <t>ARCHIVOS</t>
+  </si>
+  <si>
+    <t>EVENTO WEB</t>
+  </si>
+  <si>
+    <t>SISTEMA</t>
+  </si>
+  <si>
+    <t>ESTATUS OBJETO</t>
+  </si>
+  <si>
+    <t>COMPONENTES</t>
+  </si>
+  <si>
+    <t>PANTALLAS</t>
+  </si>
+  <si>
+    <t>CATÁLOGOS</t>
+  </si>
+  <si>
+    <t>CANALES</t>
+  </si>
+  <si>
+    <t>CLIENTES</t>
+  </si>
+  <si>
+    <t>FLUJOS</t>
+  </si>
+  <si>
+    <t>MAPA</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>NOTIFICACIONES</t>
+  </si>
+  <si>
+    <t>PALABRA COMODIN</t>
+  </si>
+  <si>
+    <t>MENSAJES</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>CONTRATACIÓN</t>
+  </si>
+  <si>
+    <t>ESTADISTICO</t>
+  </si>
+  <si>
+    <t>MONITOREO</t>
+  </si>
+  <si>
+    <t>PROCESOS</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>CD_REPTE_MT101</t>
+  </si>
+  <si>
+    <t>CD_CONSECUTIVO</t>
+  </si>
+  <si>
+    <t>CD_SECUENCIA_A</t>
+  </si>
+  <si>
+    <t>CD_SECUENCIA_B</t>
+  </si>
+  <si>
+    <t>FH_PROCESO</t>
+  </si>
+  <si>
+    <t>CD_ST_ENVIO_MT101</t>
+  </si>
+  <si>
+    <t>CD_TP_OPERACION</t>
+  </si>
+  <si>
+    <t>TP_CTA_ABONO</t>
+  </si>
+  <si>
+    <t>TP_VALIDA_TERCEROS</t>
+  </si>
+  <si>
+    <t>NB_MOT_CONCEPTO</t>
+  </si>
+  <si>
+    <t>TP_PLAZA_BENEF</t>
+  </si>
+  <si>
+    <t>TP_CLAVE_SERVICIO</t>
+  </si>
+  <si>
+    <t>TP_BANCO_EMISOR</t>
+  </si>
+  <si>
+    <t>TP_SUCURSAL_BENEF</t>
+  </si>
+  <si>
+    <t>NB_INST_ESP_70</t>
+  </si>
+  <si>
+    <t>NB_BCO_BENEF_59</t>
+  </si>
+  <si>
+    <t>NB_DOMIC_BCO_BENEF</t>
+  </si>
+  <si>
+    <t>NB_BANCO_BENEF</t>
+  </si>
+  <si>
+    <t>NB_PC_BANCO_BENEF</t>
+  </si>
+  <si>
+    <t>CD_IND_INTERPLAZA</t>
+  </si>
+  <si>
+    <t>NB_REF_CIE</t>
+  </si>
+  <si>
+    <t>CD_NUM_CHEQUE</t>
+  </si>
+  <si>
+    <t>TP_EDO_CHEQUE</t>
+  </si>
+  <si>
+    <t>NB_CONCEPTO_CIE</t>
+  </si>
+  <si>
+    <t>NB_ST_OPE_CW</t>
+  </si>
+  <si>
+    <t>NB_DESC_ST_CW</t>
+  </si>
+  <si>
+    <t>NB_FOL_ACEP_CW</t>
+  </si>
+  <si>
+    <t>NB_ARCH_ENV_CASH</t>
+  </si>
+  <si>
+    <t>NB_ARCH_SWIFT</t>
+  </si>
+  <si>
+    <t>NU_LOTE_ENVIO</t>
+  </si>
+  <si>
+    <t>NB_CAMPO_50H</t>
+  </si>
+  <si>
+    <t>FH_CAMPO_30</t>
+  </si>
+  <si>
+    <t>NB_ARCH_REG_CASH</t>
+  </si>
+  <si>
+    <t>NB_ARCH_CASH</t>
+  </si>
+  <si>
+    <t>NU_LOTE_REGRESO</t>
+  </si>
+  <si>
+    <t>rownum fila,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101a.CD_BIC_ORIGEN cdBicOrigen,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101a.NB_CAMPO_20 nbCampo20,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101b.NB_CAMPO_21 nbCampo21,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101a.FH_CAMPO_30 fhCampo30,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101a.FH_PROCESO fhProcesoA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101stenv.NB_ST_ENVIO_MT101 nbStEnvioMt101,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101b.CD_CAMPO_32B_MNDA cdCampo32bMnda,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101b.IM_CAMPO_32B_MONTO imCampo32bMonto,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101b.NB_CAMPO_50A_OC_L1 nbCampo50aOcL1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101b.NB_CAMPO_50A_OC_L2 nbCampo50aOcL2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101b.NB_CAMPO_50A_OC_L3 nbCampo50aOcL3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101b.NB_CAMPO_59A_L1 nbCampo59aL1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101b.NB_CAMPO_57A_L1 nbCampo57aL1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101b.NB_CAMPO_70_L1 nbCampo70L1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101repte.NB_DESC_ST_CW nbDescStCw,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101repte.FH_PROCESO fhProcesoRepte,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mt101repte.NB_ARCH_ENV_CASH nbArchCash</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,13 +969,27 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +999,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,10 +1018,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -760,11 +1036,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1629,1101 +1924,1446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="13"/>
+    <col min="6" max="6" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="7">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="5">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="13">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="13">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="13">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="7">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="7">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="7">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="7">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="7">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="7">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5">
+        <v>19</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
+        <v>29</v>
+      </c>
+      <c r="D23" s="5">
+        <v>21</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13">
+        <v>31</v>
+      </c>
+      <c r="D25" s="5">
+        <v>23</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>24</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D27" s="5">
+        <v>25</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5">
+        <v>26</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="7">
+        <v>27</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="7">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="7">
+        <v>28</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="7">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="7">
+        <v>29</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="7">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="7">
+        <v>30</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="7">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5">
+        <v>31</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="F33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5">
+        <v>32</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="F34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13">
+        <v>14</v>
+      </c>
+      <c r="D35" s="5">
+        <v>33</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
+      <c r="C36" s="13">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5">
+        <v>34</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5">
+        <v>35</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="D38" s="5">
+        <v>36</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="7">
+        <v>37</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="7">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="7">
+        <v>38</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="7">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="7">
+        <v>39</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="7">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="7">
+        <v>40</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="7">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1</v>
+      </c>
+      <c r="C43" s="13">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5">
+        <v>41</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+      <c r="C44" s="13">
+        <v>16</v>
+      </c>
+      <c r="D44" s="5">
+        <v>42</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
+      <c r="C45" s="13">
+        <v>17</v>
+      </c>
+      <c r="D45" s="5">
+        <v>43</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="7">
+        <v>44</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="7">
         <v>21</v>
       </c>
-      <c r="C9" s="5">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="I46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="7">
+        <v>45</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="7">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="7">
+        <v>46</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="7">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="5">
+        <v>47</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="5">
         <v>22</v>
       </c>
-      <c r="C10" s="5">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="7">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="7">
-        <v>13</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="7">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="7">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="7">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="7">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>26</v>
-      </c>
-      <c r="C20" s="5">
-        <v>18</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>27</v>
-      </c>
-      <c r="C21" s="5">
-        <v>19</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>29</v>
-      </c>
-      <c r="C23" s="5">
-        <v>21</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>30</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="I49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="5">
+        <v>48</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="5">
         <v>22</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>31</v>
-      </c>
-      <c r="C25" s="5">
-        <v>23</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>209</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>24</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5">
-        <v>25</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5">
-        <v>26</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="7">
-        <v>27</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="7">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="7">
-        <v>28</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="7">
-        <v>20</v>
-      </c>
-      <c r="H30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="7">
-        <v>29</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="7">
-        <v>20</v>
-      </c>
-      <c r="H31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="7">
-        <v>30</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="7">
-        <v>20</v>
-      </c>
-      <c r="H32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>12</v>
-      </c>
-      <c r="C33" s="5">
-        <v>31</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>13</v>
-      </c>
-      <c r="C34" s="5">
-        <v>32</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>14</v>
-      </c>
-      <c r="C35" s="5">
-        <v>33</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>211</v>
-      </c>
-      <c r="B36">
-        <v>9</v>
-      </c>
-      <c r="C36" s="5">
-        <v>34</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G36" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37" s="5">
-        <v>35</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>211</v>
-      </c>
-      <c r="B38">
-        <v>11</v>
-      </c>
-      <c r="C38" s="5">
-        <v>36</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="7">
-        <v>37</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39" s="7">
-        <v>16</v>
-      </c>
-      <c r="H39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="7">
-        <v>38</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G40" s="7">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="7">
-        <v>39</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" s="7">
-        <v>16</v>
-      </c>
-      <c r="H41" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="7">
-        <v>40</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="7">
-        <v>16</v>
-      </c>
-      <c r="H42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>15</v>
-      </c>
-      <c r="C43" s="5">
-        <v>41</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>16</v>
-      </c>
-      <c r="C44" s="5">
-        <v>42</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>17</v>
-      </c>
-      <c r="C45" s="5">
-        <v>43</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G45" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="7">
-        <v>44</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46" s="7">
-        <v>21</v>
-      </c>
-      <c r="H46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="7">
-        <v>45</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="7">
-        <v>21</v>
-      </c>
-      <c r="H47" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="7">
-        <v>46</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" s="7">
-        <v>21</v>
-      </c>
-      <c r="H48" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
-      <c r="C49" s="5">
-        <v>47</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="I50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="5">
+        <v>49</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" s="5">
+      <c r="F51" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="5">
         <v>22</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="5">
-        <v>48</v>
-      </c>
-      <c r="D50" s="8" t="s">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="5">
+        <v>50</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="5">
+      <c r="F52" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="5">
         <v>22</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I52" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="C51" s="5">
-        <v>49</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G51" s="5">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-      <c r="C52" s="5">
-        <v>50</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" s="5">
-        <v>22</v>
-      </c>
-      <c r="H52" t="s">
-        <v>195</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:G52"/>
+  <autoFilter ref="A1:H52">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Catalogo"/>
+        <filter val="Log Eventos"/>
+        <filter val="Procesos"/>
+        <filter val="Seguridad"/>
+        <filter val="Sistema"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8381,4 +9021,777 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="B2:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="J7">
+        <f>IF(H7=I7,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J40" si="0">IF(H8=I8,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="H14" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="H15" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="H16" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="H17" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="H19" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="H20" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="H24" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="javascript:;"/>
+    <hyperlink ref="B2" r:id="rId2" display="javascript:;"/>
+    <hyperlink ref="C3" r:id="rId3" display="javascript:;"/>
+    <hyperlink ref="C4" r:id="rId4" display="javascript:;"/>
+    <hyperlink ref="B5" r:id="rId5" display="javascript:;"/>
+    <hyperlink ref="C6" r:id="rId6" display="javascript:;"/>
+    <hyperlink ref="C7" r:id="rId7" display="javascript:;"/>
+    <hyperlink ref="B8" r:id="rId8" display="javascript:;"/>
+    <hyperlink ref="C9" r:id="rId9" display="javascript:;"/>
+    <hyperlink ref="C10" r:id="rId10" display="javascript:;"/>
+    <hyperlink ref="C11" r:id="rId11" display="javascript:;"/>
+    <hyperlink ref="B12" r:id="rId12" display="javascript:;"/>
+    <hyperlink ref="C13" r:id="rId13" display="javascript:;"/>
+    <hyperlink ref="C14" r:id="rId14" display="javascript:;"/>
+    <hyperlink ref="C15" r:id="rId15" display="javascript:;"/>
+    <hyperlink ref="C16" r:id="rId16" display="javascript:;"/>
+    <hyperlink ref="C17" r:id="rId17" display="javascript:;"/>
+    <hyperlink ref="B18" r:id="rId18" display="javascript:;"/>
+    <hyperlink ref="C19" r:id="rId19" display="javascript:;"/>
+    <hyperlink ref="C20" r:id="rId20" display="javascript:;"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>